--- a/TenderProcessingCode/TenderProcessing/App_Data/Спецификация конкурса.xlsx
+++ b/TenderProcessingCode/TenderProcessing/App_Data/Спецификация конкурса.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>Порядковый номер</t>
-  </si>
-  <si>
     <t>Каталожный номер</t>
   </si>
   <si>
@@ -42,12 +39,6 @@
     <t>Комментарий</t>
   </si>
   <si>
-    <t>Сумма максимум</t>
-  </si>
-  <si>
-    <t>Цена за единицу максимум</t>
-  </si>
-  <si>
     <t>Шт</t>
   </si>
   <si>
@@ -55,6 +46,15 @@
   </si>
   <si>
     <t>Снабженец *</t>
+  </si>
+  <si>
+    <t>№ пп</t>
+  </si>
+  <si>
+    <t>Цена за ед., макс.</t>
+  </si>
+  <si>
+    <t>Сумма, макс.</t>
   </si>
 </sst>
 </file>
@@ -420,12 +420,12 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
@@ -438,34 +438,34 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -491,12 +491,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
